--- a/xlsx/胡果·格老秀斯_intext.xlsx
+++ b/xlsx/胡果·格老秀斯_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭共和國</t>
+    <t>荷兰共和国</t>
   </si>
   <si>
     <t>政策_政策_外交政策_胡果·格老秀斯</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD_(%E5%9C%B0%E5%8D%80)</t>
   </si>
   <si>
-    <t>荷蘭 (地區)</t>
+    <t>荷兰 (地区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%A4%AB%E7%89%B9</t>
@@ -47,31 +47,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>瑞典帝國</t>
+    <t>瑞典帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%8E%E6%8B%89%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>波美拉尼亞</t>
+    <t>波美拉尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E6%89%98%E5%85%8B</t>
   </si>
   <si>
-    <t>羅斯托克</t>
+    <t>罗斯托克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/17%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>17世紀哲學</t>
+    <t>17世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>西方哲學</t>
+    <t>西方哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
@@ -83,49 +83,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84%E8%AB%96</t>
   </si>
   <si>
-    <t>社會契約論</t>
+    <t>社会契约论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>人文主義</t>
+    <t>人文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%99%A2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>經院哲學</t>
+    <t>经院哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
+    <t>政治哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教神學</t>
+    <t>基督教神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理論</t>
+    <t>理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E4%B9%89%E4%B9%8B%E6%88%98</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
+    <t>西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E6%96%AF%E8%B0%9F</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>蘇格蘭啟蒙運動</t>
+    <t>苏格兰启蒙运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%96%8B%E5%9C%8B%E5%85%83%E5%8B%B3</t>
   </si>
   <si>
-    <t>美國開國元勳</t>
+    <t>美国开国元勳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B0%91%E5%BF%B5%E4%B8%BB%E4%B9%89</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>壟斷</t>
+    <t>垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%AE%E8%88%B0%E5%A4%96%E4%BA%A4</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>八十年戰爭</t>
+    <t>八十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%99%BB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>萊登大學</t>
+    <t>莱登大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E6%96%AF%E5%9B%BE%E6%96%AF%C2%B7%E5%88%A9%E6%99%AE%E4%BF%AE%E6%96%AF</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9F%8F%E6%8B%89%E5%9C%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新柏拉圖主義</t>
+    <t>新柏拉图主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B0%94%E6%8F%90%E4%BA%9A%E5%8A%AA%E6%96%AF%C2%B7%E5%8D%A1%E4%BD%A9%E6%8B%89</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B2%BB%E8%A6%AA%E7%8E%8B</t>
   </si>
   <si>
-    <t>奧蘭治親王</t>
+    <t>奥兰治亲王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E9%A8%B7%E7%9A%84%E6%AF%9B%E9%87%8C%E8%8C%A8</t>
   </si>
   <si>
-    <t>拿騷的毛里茨</t>
+    <t>拿骚的毛里茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E7%89%B9%E4%B8%B9</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>神學</t>
+    <t>神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E8%AE%AE</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%9C%81%E7%9D%A3</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%95%B7</t>
   </si>
   <si>
-    <t>首長</t>
+    <t>首长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%AE%AE%E9%95%BF</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>政變</t>
+    <t>政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%89%B9</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%89%B9%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>多特會議</t>
+    <t>多特会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E7%9B%A3%E7%A6%81</t>
   </si>
   <si>
-    <t>終身監禁</t>
+    <t>终身监禁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>東印度公司</t>
+    <t>东印度公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>三十年戰爭</t>
+    <t>三十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E8%A6%81</t>
@@ -587,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8D%A1</t>
   </si>
   <si>
-    <t>塞內卡</t>
+    <t>塞内卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E6%81%95</t>
   </si>
   <si>
-    <t>寬恕</t>
+    <t>宽恕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
